--- a/建模2022/附件.xlsx
+++ b/建模2022/附件.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\honor\Desktop\建模2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\honor\Desktop\2022MATH\建模2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8738D9E-37D8-4DDB-B0E7-78CE303DD277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC885C1E-8F96-4519-934E-FD609146507F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表单1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,12 @@
     <sheet name="表单4" sheetId="4" r:id="rId4"/>
     <sheet name="表单5" sheetId="5" r:id="rId5"/>
     <sheet name="表单6" sheetId="7" r:id="rId6"/>
+    <sheet name="表单7" sheetId="8" r:id="rId7"/>
+    <sheet name="表单8" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">表单1!$G$1:$G$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">表单2!$C$1:$C$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">表单2!$E$1:$E$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">表单6!$O$1:$O$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2678,7 +2680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -4112,10 +4114,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D42" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:T70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -4189,7 +4192,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>143</v>
       </c>
@@ -4295,7 +4298,7 @@
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -4343,7 +4346,7 @@
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -4399,7 +4402,7 @@
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -4451,7 +4454,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -4505,7 +4508,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>93</v>
       </c>
@@ -4559,7 +4562,7 @@
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>94</v>
       </c>
@@ -4615,7 +4618,7 @@
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -4765,7 +4768,7 @@
         <v>15.03</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
@@ -4813,7 +4816,7 @@
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
     </row>
-    <row r="14" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
@@ -4913,7 +4916,7 @@
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
     </row>
-    <row r="16" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
@@ -4961,7 +4964,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>75</v>
       </c>
@@ -5011,7 +5014,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="13"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>37</v>
       </c>
@@ -5065,7 +5068,7 @@
       <c r="S18" s="11"/>
       <c r="T18" s="13"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>38</v>
       </c>
@@ -5119,7 +5122,7 @@
       <c r="S19" s="11"/>
       <c r="T19" s="13"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>39</v>
       </c>
@@ -5175,7 +5178,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="13"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
@@ -5229,7 +5232,7 @@
       </c>
       <c r="T21" s="13"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>41</v>
       </c>
@@ -5381,7 +5384,7 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
     </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>82</v>
       </c>
@@ -5433,7 +5436,7 @@
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>21</v>
       </c>
@@ -5745,7 +5748,7 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>76</v>
       </c>
@@ -7820,7 +7823,13 @@
       <c r="T70" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C70" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="E1:E70" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="铅钡"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T71">
     <sortCondition ref="A2:A71"/>
   </sortState>
@@ -7834,8 +7843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -12400,7 +12409,7 @@
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -12456,241 +12465,301 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>69.33</v>
-      </c>
-      <c r="B2" s="11"/>
+        <v>62.47</v>
+      </c>
+      <c r="B2" s="11">
+        <v>3.38</v>
+      </c>
       <c r="C2" s="11">
-        <v>9.99</v>
+        <v>12.28</v>
       </c>
       <c r="D2" s="11">
-        <v>6.32</v>
+        <v>8.23</v>
       </c>
       <c r="E2" s="11">
-        <v>0.87</v>
+        <v>0.66</v>
       </c>
       <c r="F2" s="11">
-        <v>3.93</v>
+        <v>9.23</v>
       </c>
       <c r="G2" s="11">
-        <v>1.74</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="11">
-        <v>3.87</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+        <v>0.47</v>
+      </c>
+      <c r="I2" s="11">
+        <v>1.62</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
       <c r="K2" s="11">
-        <v>1.17</v>
-      </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11">
-        <v>0.39</v>
+        <v>0.16</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0</v>
+      </c>
+      <c r="N2" s="13">
+        <v>0</v>
       </c>
       <c r="O2" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>36.28</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>37.36</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
       <c r="C3" s="11">
-        <v>1.05</v>
+        <v>0.71</v>
       </c>
       <c r="D3" s="11">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="E3" s="11">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>5.73</v>
+        <v>5.45</v>
       </c>
       <c r="G3" s="11">
-        <v>1.86</v>
+        <v>1.51</v>
       </c>
       <c r="H3" s="11">
-        <v>0.26</v>
+        <v>4.78</v>
       </c>
       <c r="I3" s="11">
-        <v>47.43</v>
-      </c>
-      <c r="J3" s="11"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J3" s="11">
+        <v>23.55</v>
+      </c>
       <c r="K3" s="11">
-        <v>3.57</v>
+        <v>5.75</v>
       </c>
       <c r="L3" s="11">
-        <v>0.19</v>
-      </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0</v>
+      </c>
       <c r="O3" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>87.05</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>61.71</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
       <c r="C4" s="11">
-        <v>5.19</v>
+        <v>12.37</v>
       </c>
       <c r="D4" s="11">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E4" s="11"/>
+        <v>5.87</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="F4" s="11">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="G4" s="11"/>
+        <v>5.5</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2.16</v>
+      </c>
       <c r="H4" s="11">
-        <v>0.78</v>
+        <v>5.09</v>
       </c>
       <c r="I4" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="J4" s="11"/>
+        <v>1.41</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2.86</v>
+      </c>
       <c r="K4" s="11">
-        <v>0.66</v>
-      </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
+        <v>0.7</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
       <c r="O4" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <v>61.71</v>
-      </c>
-      <c r="B5" s="11"/>
+        <v>76.680000000000007</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
       <c r="C5" s="11">
-        <v>12.37</v>
+        <v>0</v>
       </c>
       <c r="D5" s="11">
-        <v>5.87</v>
+        <v>4.71</v>
       </c>
       <c r="E5" s="11">
-        <v>1.1100000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="F5" s="11">
-        <v>5.5</v>
+        <v>6.19</v>
       </c>
       <c r="G5" s="11">
-        <v>2.16</v>
+        <v>2.37</v>
       </c>
       <c r="H5" s="11">
-        <v>5.09</v>
+        <v>3.28</v>
       </c>
       <c r="I5" s="11">
-        <v>1.41</v>
+        <v>1</v>
       </c>
       <c r="J5" s="11">
-        <v>2.86</v>
+        <v>1.97</v>
       </c>
       <c r="K5" s="11">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L5" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0</v>
+      </c>
       <c r="O5" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>65.88</v>
-      </c>
-      <c r="B6" s="11"/>
+        <v>59.81</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
       <c r="C6" s="11">
-        <v>9.67</v>
+        <v>7.68</v>
       </c>
       <c r="D6" s="11">
-        <v>7.12</v>
+        <v>5.41</v>
       </c>
       <c r="E6" s="11">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="F6" s="11">
-        <v>6.44</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="G6" s="11">
-        <v>2.06</v>
+        <v>6.04</v>
       </c>
       <c r="H6" s="11">
         <v>2.1800000000000002</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.97</v>
+      </c>
       <c r="K6" s="11">
-        <v>0.79</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+        <v>4.5</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
       <c r="N6" s="11">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="O6" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <v>61.58</v>
-      </c>
-      <c r="B7" s="11"/>
+        <v>87.05</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
       <c r="C7" s="11">
-        <v>10.95</v>
+        <v>5.19</v>
       </c>
       <c r="D7" s="11">
-        <v>7.35</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="E7" s="11">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="F7" s="11">
-        <v>7.5</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="G7" s="11">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="H7" s="11">
-        <v>3.27</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+        <v>0.78</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
       <c r="K7" s="11">
-        <v>0.94</v>
+        <v>0.66</v>
       </c>
       <c r="L7" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="M7" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
       <c r="N7" s="11">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>67.650000000000006</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
       <c r="C8" s="11">
         <v>7.37</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
       <c r="E8" s="11">
         <v>1.98</v>
       </c>
@@ -12715,636 +12784,822 @@
       <c r="L8" s="11">
         <v>0.11</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
       <c r="O8" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <v>59.81</v>
-      </c>
-      <c r="B9" s="11"/>
+        <v>61.87</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3.21</v>
+      </c>
       <c r="C9" s="11">
-        <v>7.68</v>
+        <v>7.44</v>
       </c>
       <c r="D9" s="11">
-        <v>5.41</v>
+        <v>0</v>
       </c>
       <c r="E9" s="11">
-        <v>1.73</v>
+        <v>1.02</v>
       </c>
       <c r="F9" s="11">
-        <v>10.050000000000001</v>
+        <v>3.15</v>
       </c>
       <c r="G9" s="11">
-        <v>6.04</v>
+        <v>1.04</v>
       </c>
       <c r="H9" s="11">
-        <v>2.1800000000000002</v>
+        <v>1.29</v>
       </c>
       <c r="I9" s="11">
-        <v>0.35</v>
+        <v>0.19</v>
       </c>
       <c r="J9" s="11">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="K9" s="11">
-        <v>4.5</v>
+        <v>0.26</v>
       </c>
       <c r="L9" s="11">
-        <v>0.12</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0</v>
+      </c>
       <c r="O9" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>92.63</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+        <v>60.71</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2.12</v>
+      </c>
+      <c r="C10" s="11">
+        <v>5.71</v>
+      </c>
       <c r="D10" s="11">
-        <v>1.07</v>
-      </c>
-      <c r="E10" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.85</v>
+      </c>
       <c r="F10" s="11">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="G10" s="11">
-        <v>0.17</v>
+        <v>1.04</v>
       </c>
       <c r="H10" s="11">
-        <v>3.24</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
       <c r="K10" s="11">
-        <v>0.61</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+        <v>0.18</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
       <c r="O10" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>20.14</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+        <v>63.3</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.3</v>
+      </c>
       <c r="D11" s="11">
-        <v>1.48</v>
-      </c>
-      <c r="E11" s="11"/>
+        <v>2.98</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1.49</v>
+      </c>
       <c r="F11" s="11">
-        <v>1.34</v>
-      </c>
-      <c r="G11" s="11"/>
+        <v>14.34</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.81</v>
+      </c>
       <c r="H11" s="11">
-        <v>10.41</v>
+        <v>0.74</v>
       </c>
       <c r="I11" s="11">
-        <v>28.68</v>
+        <v>12.31</v>
       </c>
       <c r="J11" s="11">
-        <v>31.23</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="K11" s="11">
-        <v>3.59</v>
+        <v>0.41</v>
       </c>
       <c r="L11" s="11">
-        <v>0.37</v>
-      </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11">
-        <v>2.58</v>
+        <v>0.25</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0</v>
       </c>
       <c r="O11" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+        <v>60.74</v>
+      </c>
+      <c r="B12" s="11">
+        <v>3.06</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.2</v>
+      </c>
       <c r="D12" s="11">
-        <v>3.19</v>
-      </c>
-      <c r="E12" s="11"/>
+        <v>2.14</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
       <c r="F12" s="11">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="G12" s="11"/>
+        <v>12.69</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.77</v>
+      </c>
       <c r="H12" s="11">
-        <v>3.14</v>
+        <v>0.43</v>
       </c>
       <c r="I12" s="11">
-        <v>32.450000000000003</v>
+        <v>13.61</v>
       </c>
       <c r="J12" s="11">
-        <v>30.62</v>
+        <v>5.22</v>
       </c>
       <c r="K12" s="11">
-        <v>7.56</v>
+        <v>0</v>
       </c>
       <c r="L12" s="11">
-        <v>0.53</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11">
-        <v>15.03</v>
+        <v>0.26</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
       </c>
       <c r="O12" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>95.02</v>
-      </c>
-      <c r="B13" s="11"/>
+        <v>65.180000000000007</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2.1</v>
+      </c>
       <c r="C13" s="11">
-        <v>0.59</v>
+        <v>14.52</v>
       </c>
       <c r="D13" s="11">
-        <v>0.62</v>
-      </c>
-      <c r="E13" s="11"/>
+        <v>8.27</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.52</v>
+      </c>
       <c r="F13" s="11">
-        <v>1.32</v>
+        <v>6.18</v>
       </c>
       <c r="G13" s="11">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="H13" s="11">
-        <v>1.55</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+        <v>1.07</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
       <c r="K13" s="11">
-        <v>0.35</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
       <c r="O13" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>96.77</v>
-      </c>
-      <c r="B14" s="11"/>
+        <v>69.33</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
       <c r="C14" s="11">
-        <v>0.92</v>
+        <v>9.99</v>
       </c>
       <c r="D14" s="11">
-        <v>0.21</v>
-      </c>
-      <c r="E14" s="11"/>
+        <v>6.32</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.87</v>
+      </c>
       <c r="F14" s="11">
-        <v>0.81</v>
+        <v>3.93</v>
       </c>
       <c r="G14" s="11">
-        <v>0.26</v>
+        <v>1.74</v>
       </c>
       <c r="H14" s="11">
-        <v>0.84</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+        <v>3.87</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1.17</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0.39</v>
+      </c>
       <c r="O14" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>33.590000000000003</v>
-      </c>
-      <c r="B15" s="11"/>
+        <v>63.66</v>
+      </c>
+      <c r="B15" s="11">
+        <v>3.04</v>
+      </c>
       <c r="C15" s="11">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="D15" s="11">
-        <v>3.51</v>
+        <v>0.78</v>
       </c>
       <c r="E15" s="11">
-        <v>0.71</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F15" s="11">
-        <v>2.69</v>
-      </c>
-      <c r="G15" s="11"/>
+        <v>6.06</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
       <c r="H15" s="11">
-        <v>4.93</v>
+        <v>0.54</v>
       </c>
       <c r="I15" s="11">
-        <v>25.39</v>
+        <v>13.66</v>
       </c>
       <c r="J15" s="11">
-        <v>14.61</v>
+        <v>8.99</v>
       </c>
       <c r="K15" s="11">
-        <v>9.3800000000000008</v>
+        <v>0</v>
       </c>
       <c r="L15" s="11">
-        <v>0.37</v>
-      </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
+        <v>0.27</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
       <c r="O15" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>94.29</v>
-      </c>
-      <c r="B16" s="11"/>
+        <v>65.88</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
       <c r="C16" s="11">
-        <v>1.01</v>
+        <v>9.67</v>
       </c>
       <c r="D16" s="11">
-        <v>0.72</v>
-      </c>
-      <c r="E16" s="11"/>
+        <v>7.12</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1.56</v>
+      </c>
       <c r="F16" s="11">
-        <v>1.46</v>
+        <v>6.44</v>
       </c>
       <c r="G16" s="11">
-        <v>0.28999999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="H16" s="11">
-        <v>1.65</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
       <c r="K16" s="11">
-        <v>0.15</v>
-      </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
+        <v>0.79</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0.36</v>
+      </c>
       <c r="O16" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>59.01</v>
+        <v>61.58</v>
       </c>
       <c r="B17" s="11">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="C17" s="11">
-        <v>12.53</v>
+        <v>10.95</v>
       </c>
       <c r="D17" s="11">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E17" s="11"/>
+        <v>7.35</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1.77</v>
+      </c>
       <c r="F17" s="11">
-        <v>6.16</v>
+        <v>7.5</v>
       </c>
       <c r="G17" s="11">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="H17" s="11">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+        <v>3.27</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
       <c r="K17" s="11">
-        <v>1.27</v>
-      </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="13"/>
+        <v>0.94</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0.47</v>
+      </c>
       <c r="O17" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>62.47</v>
+        <v>92.63</v>
       </c>
       <c r="B18" s="11">
-        <v>3.38</v>
+        <v>0</v>
       </c>
       <c r="C18" s="11">
-        <v>12.28</v>
+        <v>0</v>
       </c>
       <c r="D18" s="11">
-        <v>8.23</v>
+        <v>1.07</v>
       </c>
       <c r="E18" s="11">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="F18" s="11">
-        <v>9.23</v>
+        <v>1.98</v>
       </c>
       <c r="G18" s="11">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="H18" s="11">
-        <v>0.47</v>
+        <v>3.24</v>
       </c>
       <c r="I18" s="11">
-        <v>1.62</v>
-      </c>
-      <c r="J18" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
       <c r="K18" s="11">
-        <v>0.16</v>
-      </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="13"/>
+        <v>0.61</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0</v>
+      </c>
       <c r="O18" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>61.87</v>
+        <v>95.02</v>
       </c>
       <c r="B19" s="11">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="C19" s="11">
-        <v>7.44</v>
-      </c>
-      <c r="D19" s="11"/>
+        <v>0.59</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0.62</v>
+      </c>
       <c r="E19" s="11">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>3.15</v>
+        <v>1.32</v>
       </c>
       <c r="G19" s="11">
-        <v>1.04</v>
+        <v>0.32</v>
       </c>
       <c r="H19" s="11">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="I19" s="11">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="J19" s="11">
         <v>0</v>
       </c>
       <c r="K19" s="11">
-        <v>0.26</v>
-      </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="13"/>
+        <v>0.35</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
       <c r="O19" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>65.180000000000007</v>
+        <v>96.77</v>
       </c>
       <c r="B20" s="11">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="11">
-        <v>14.52</v>
+        <v>0.92</v>
       </c>
       <c r="D20" s="11">
-        <v>8.27</v>
+        <v>0.21</v>
       </c>
       <c r="E20" s="11">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="F20" s="11">
-        <v>6.18</v>
+        <v>0.81</v>
       </c>
       <c r="G20" s="11">
-        <v>0.42</v>
+        <v>0.26</v>
       </c>
       <c r="H20" s="11">
-        <v>1.07</v>
+        <v>0.84</v>
       </c>
       <c r="I20" s="11">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="J20" s="11">
         <v>0</v>
       </c>
-      <c r="K20" s="11"/>
+      <c r="K20" s="11">
+        <v>0</v>
+      </c>
       <c r="L20" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <v>0</v>
+      </c>
+      <c r="N20" s="11">
+        <v>0</v>
+      </c>
       <c r="O20" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>60.71</v>
+        <v>94.29</v>
       </c>
       <c r="B21" s="11">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="C21" s="11">
-        <v>5.71</v>
-      </c>
-      <c r="D21" s="11"/>
+        <v>1.01</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.72</v>
+      </c>
       <c r="E21" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="F21" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1.46</v>
+      </c>
       <c r="G21" s="11">
-        <v>1.04</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H21" s="11">
-        <v>1.0900000000000001</v>
+        <v>1.65</v>
       </c>
       <c r="I21" s="11">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="J21" s="11">
         <v>0</v>
       </c>
       <c r="K21" s="11">
-        <v>0.18</v>
-      </c>
-      <c r="L21" s="11"/>
+        <v>0.15</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
       <c r="M21" s="11">
         <v>0</v>
       </c>
-      <c r="N21" s="13"/>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
       <c r="O21" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>79.459999999999994</v>
-      </c>
-      <c r="B22" s="11"/>
+        <v>59.01</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2.86</v>
+      </c>
       <c r="C22" s="11">
-        <v>9.42</v>
-      </c>
-      <c r="D22" s="11"/>
+        <v>12.53</v>
+      </c>
+      <c r="D22" s="11">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="E22" s="11">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="F22" s="11">
-        <v>3.05</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+        <v>6.16</v>
+      </c>
+      <c r="G22" s="11">
+        <v>2.88</v>
+      </c>
+      <c r="H22" s="11">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
       <c r="K22" s="11">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="L22" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="M22" s="11">
-        <v>2.36</v>
-      </c>
-      <c r="N22" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="13">
+        <v>0</v>
+      </c>
       <c r="O22" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>29.64</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+        <v>53.33</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.32</v>
+      </c>
       <c r="D23" s="11">
-        <v>2.93</v>
+        <v>2.82</v>
       </c>
       <c r="E23" s="11">
-        <v>0.59</v>
+        <v>1.54</v>
       </c>
       <c r="F23" s="11">
-        <v>3.57</v>
+        <v>13.65</v>
       </c>
       <c r="G23" s="11">
-        <v>1.33</v>
+        <v>1.03</v>
       </c>
       <c r="H23" s="11">
-        <v>3.51</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
-        <v>42.82</v>
+        <v>15.71</v>
       </c>
       <c r="J23" s="11">
-        <v>5.35</v>
+        <v>7.31</v>
       </c>
       <c r="K23" s="11">
-        <v>8.83</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L23" s="11">
-        <v>0.19</v>
-      </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="M23" s="11">
+        <v>1.31</v>
+      </c>
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
       <c r="O23" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>37.36</v>
-      </c>
-      <c r="B24" s="11"/>
+        <v>61.28</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2.66</v>
+      </c>
       <c r="C24" s="11">
-        <v>0.71</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+        <v>0.11</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.74</v>
+      </c>
       <c r="F24" s="11">
-        <v>5.45</v>
+        <v>5</v>
       </c>
       <c r="G24" s="11">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="H24" s="11">
-        <v>4.78</v>
+        <v>0.53</v>
       </c>
       <c r="I24" s="11">
-        <v>9.3000000000000007</v>
+        <v>15.99</v>
       </c>
       <c r="J24" s="11">
-        <v>23.55</v>
+        <v>10.96</v>
       </c>
       <c r="K24" s="11">
-        <v>5.75</v>
-      </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0</v>
+      </c>
+      <c r="N24" s="13">
+        <v>0</v>
+      </c>
       <c r="O24" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>76.680000000000007</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+        <v>79.459999999999994</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0</v>
+      </c>
+      <c r="C25" s="11">
+        <v>9.42</v>
+      </c>
       <c r="D25" s="11">
-        <v>4.71</v>
+        <v>0</v>
       </c>
       <c r="E25" s="11">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="F25" s="11">
-        <v>6.19</v>
+        <v>3.05</v>
       </c>
       <c r="G25" s="11">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="H25" s="11">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="11">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="K25" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+        <v>1.36</v>
+      </c>
+      <c r="L25" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M25" s="11">
+        <v>2.36</v>
+      </c>
+      <c r="N25" s="13">
+        <v>0</v>
+      </c>
       <c r="O25" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>92.35</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
       <c r="C26" s="11">
         <v>0.74</v>
       </c>
@@ -13363,211 +13618,273 @@
       <c r="H26" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
       <c r="K26" s="11">
         <v>0.21</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
+      <c r="L26" s="11">
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
+        <v>0</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0</v>
+      </c>
       <c r="O26" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>53.79</v>
+        <v>75.510000000000005</v>
       </c>
       <c r="B27" s="11">
-        <v>7.92</v>
-      </c>
-      <c r="C27" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.15</v>
+      </c>
       <c r="D27" s="11">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="E27" s="11">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="F27" s="11">
-        <v>1.42</v>
-      </c>
-      <c r="G27" s="11"/>
+        <v>2.35</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
       <c r="H27" s="11">
-        <v>2.99</v>
+        <v>0.47</v>
       </c>
       <c r="I27" s="11">
-        <v>16.98</v>
+        <v>16.16</v>
       </c>
       <c r="J27" s="11">
-        <v>11.86</v>
-      </c>
-      <c r="K27" s="11"/>
+        <v>3.55</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0.13</v>
+      </c>
       <c r="L27" s="11">
-        <v>0.33</v>
-      </c>
-      <c r="M27" s="11"/>
-      <c r="N27" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+      <c r="N27" s="13">
+        <v>0</v>
+      </c>
       <c r="O27" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>31.94</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+        <v>65.91</v>
+      </c>
+      <c r="B28" s="11">
+        <v>0</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0</v>
+      </c>
       <c r="D28" s="11">
-        <v>0.47</v>
-      </c>
-      <c r="E28" s="11"/>
+        <v>1.6</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.89</v>
+      </c>
       <c r="F28" s="11">
-        <v>1.59</v>
-      </c>
-      <c r="G28" s="11"/>
+        <v>3.11</v>
+      </c>
+      <c r="G28" s="11">
+        <v>4.59</v>
+      </c>
       <c r="H28" s="11">
-        <v>8.4600000000000009</v>
+        <v>0.44</v>
       </c>
       <c r="I28" s="11">
-        <v>29.14</v>
+        <v>16.55</v>
       </c>
       <c r="J28" s="11">
-        <v>26.23</v>
+        <v>3.42</v>
       </c>
       <c r="K28" s="11">
-        <v>0.14000000000000001</v>
+        <v>1.62</v>
       </c>
       <c r="L28" s="11">
-        <v>0.91</v>
-      </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
+        <v>0.3</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0</v>
+      </c>
+      <c r="N28" s="11">
+        <v>0</v>
+      </c>
       <c r="O28" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>50.61</v>
+        <v>53.79</v>
       </c>
       <c r="B29" s="11">
-        <v>2.31</v>
-      </c>
-      <c r="C29" s="11"/>
+        <v>7.92</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0</v>
+      </c>
       <c r="D29" s="11">
-        <v>0.63</v>
-      </c>
-      <c r="E29" s="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.71</v>
+      </c>
       <c r="F29" s="11">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="G29" s="11">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="H29" s="11">
-        <v>1.1200000000000001</v>
+        <v>2.99</v>
       </c>
       <c r="I29" s="11">
-        <v>31.9</v>
+        <v>16.98</v>
       </c>
       <c r="J29" s="11">
-        <v>6.65</v>
+        <v>11.86</v>
       </c>
       <c r="K29" s="11">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="L29" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="M29" s="11"/>
-      <c r="N29" s="13"/>
+        <v>0.33</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+      <c r="N29" s="13">
+        <v>0</v>
+      </c>
       <c r="O29" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>19.79</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+        <v>68.08</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.26</v>
+      </c>
       <c r="D30" s="11">
-        <v>1.44</v>
-      </c>
-      <c r="E30" s="11"/>
+        <v>1.34</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
       <c r="F30" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="G30" s="11"/>
+        <v>4.7</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0.41</v>
+      </c>
       <c r="H30" s="11">
-        <v>10.57</v>
+        <v>0.33</v>
       </c>
       <c r="I30" s="11">
-        <v>29.53</v>
+        <v>17.14</v>
       </c>
       <c r="J30" s="11">
-        <v>32.25</v>
+        <v>4.04</v>
       </c>
       <c r="K30" s="11">
-        <v>3.13</v>
+        <v>1.04</v>
       </c>
       <c r="L30" s="11">
-        <v>0.45</v>
-      </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11">
-        <v>1.96</v>
+        <v>0.12</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="N30" s="13">
+        <v>0</v>
       </c>
       <c r="O30" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>3.72</v>
-      </c>
-      <c r="B31" s="11"/>
+        <v>60.12</v>
+      </c>
+      <c r="B31" s="11">
+        <v>0</v>
+      </c>
       <c r="C31" s="11">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="D31" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <v>2.72</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
         <v>3.01</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11">
-        <v>1.18</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11">
-        <v>3.6</v>
-      </c>
       <c r="I31" s="11">
-        <v>29.92</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="J31" s="11">
-        <v>35.450000000000003</v>
+        <v>10.34</v>
       </c>
       <c r="K31" s="11">
-        <v>6.04</v>
+        <v>1.46</v>
       </c>
       <c r="L31" s="11">
-        <v>0.62</v>
-      </c>
-      <c r="M31" s="11"/>
+        <v>0.31</v>
+      </c>
+      <c r="M31" s="11">
+        <v>0</v>
+      </c>
       <c r="N31" s="11">
-        <v>15.95</v>
+        <v>3.66</v>
       </c>
       <c r="O31" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>92.72</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="B32" s="11">
+        <v>0</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0</v>
+      </c>
       <c r="D32" s="11">
         <v>0.94</v>
       </c>
@@ -13583,1470 +13900,1810 @@
       <c r="H32" s="11">
         <v>1.54</v>
       </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
       <c r="K32" s="11">
         <v>0.36</v>
       </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0</v>
+      </c>
       <c r="O32" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>68.08</v>
-      </c>
-      <c r="B33" s="11"/>
+        <v>69.709999999999994</v>
+      </c>
+      <c r="B33" s="11">
+        <v>0</v>
+      </c>
       <c r="C33" s="11">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="D33" s="11">
-        <v>1.34</v>
+        <v>0.46</v>
       </c>
       <c r="E33" s="11">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <v>2.36</v>
+      </c>
+      <c r="G33" s="11">
         <v>1</v>
       </c>
-      <c r="F33" s="11">
-        <v>4.7</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0.41</v>
-      </c>
       <c r="H33" s="11">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="I33" s="11">
-        <v>17.14</v>
+        <v>19.760000000000002</v>
       </c>
       <c r="J33" s="11">
-        <v>4.04</v>
+        <v>4.88</v>
       </c>
       <c r="K33" s="11">
-        <v>1.04</v>
+        <v>0.17</v>
       </c>
       <c r="L33" s="11">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="M33" s="11">
-        <v>0.23</v>
-      </c>
-      <c r="N33" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="13">
+        <v>0</v>
+      </c>
       <c r="O33" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>63.3</v>
+        <v>51.33</v>
       </c>
       <c r="B34" s="11">
-        <v>0.92</v>
+        <v>5.68</v>
       </c>
       <c r="C34" s="11">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D34" s="11">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="E34" s="11">
-        <v>1.49</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F34" s="11">
-        <v>14.34</v>
+        <v>5.66</v>
       </c>
       <c r="G34" s="11">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="H34" s="11">
-        <v>0.74</v>
+        <v>2.72</v>
       </c>
       <c r="I34" s="11">
-        <v>12.31</v>
+        <v>20.12</v>
       </c>
       <c r="J34" s="11">
-        <v>2.0299999999999998</v>
+        <v>10.88</v>
       </c>
       <c r="K34" s="11">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="L34" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="M34" s="11"/>
-      <c r="N34" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+      <c r="N34" s="13">
+        <v>0</v>
+      </c>
       <c r="O34" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>34.340000000000003</v>
-      </c>
-      <c r="B35" s="11"/>
+        <v>51.26</v>
+      </c>
+      <c r="B35" s="11">
+        <v>5.74</v>
+      </c>
       <c r="C35" s="11">
-        <v>1.41</v>
+        <v>0.15</v>
       </c>
       <c r="D35" s="11">
-        <v>4.49</v>
+        <v>0.79</v>
       </c>
       <c r="E35" s="11">
-        <v>0.98</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F35" s="11">
-        <v>4.3499999999999996</v>
+        <v>3.53</v>
       </c>
       <c r="G35" s="11">
-        <v>2.12</v>
-      </c>
-      <c r="H35" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>2.67</v>
+      </c>
       <c r="I35" s="11">
-        <v>39.22</v>
+        <v>21.88</v>
       </c>
       <c r="J35" s="11">
-        <v>10.29</v>
-      </c>
-      <c r="K35" s="11"/>
+        <v>10.47</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0.08</v>
+      </c>
       <c r="L35" s="11">
         <v>0.35</v>
       </c>
       <c r="M35" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="N35" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="13">
+        <v>0</v>
+      </c>
       <c r="O35" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>36.93</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+        <v>65.91</v>
+      </c>
+      <c r="B36" s="11">
+        <v>0</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0</v>
+      </c>
       <c r="D36" s="11">
-        <v>4.24</v>
+        <v>0.38</v>
       </c>
       <c r="E36" s="11">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="F36" s="11">
-        <v>3.86</v>
+        <v>1.44</v>
       </c>
       <c r="G36" s="11">
-        <v>2.74</v>
-      </c>
-      <c r="H36" s="11"/>
+        <v>0.17</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0.16</v>
+      </c>
       <c r="I36" s="11">
-        <v>37.74</v>
+        <v>22.05</v>
       </c>
       <c r="J36" s="11">
-        <v>10.35</v>
+        <v>5.68</v>
       </c>
       <c r="K36" s="11">
-        <v>1.41</v>
+        <v>0.42</v>
       </c>
       <c r="L36" s="11">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="M36" s="11">
-        <v>0.44</v>
-      </c>
-      <c r="N36" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="13">
+        <v>0</v>
+      </c>
       <c r="O36" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>65.91</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+        <v>54.61</v>
+      </c>
+      <c r="B37" s="11">
+        <v>0</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0.3</v>
+      </c>
       <c r="D37" s="11">
-        <v>1.6</v>
+        <v>2.08</v>
       </c>
       <c r="E37" s="11">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
       <c r="F37" s="11">
-        <v>3.11</v>
+        <v>6.5</v>
       </c>
       <c r="G37" s="11">
-        <v>4.59</v>
+        <v>1.27</v>
       </c>
       <c r="H37" s="11">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="I37" s="11">
-        <v>16.55</v>
+        <v>23.02</v>
       </c>
       <c r="J37" s="11">
-        <v>3.42</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="K37" s="11">
-        <v>1.62</v>
+        <v>4.32</v>
       </c>
       <c r="L37" s="11">
         <v>0.3</v>
       </c>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
+      <c r="M37" s="11">
+        <v>0</v>
+      </c>
+      <c r="N37" s="13">
+        <v>0</v>
+      </c>
       <c r="O37" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>69.709999999999994</v>
-      </c>
-      <c r="B38" s="11"/>
+        <v>55.21</v>
+      </c>
+      <c r="B38" s="11">
+        <v>0</v>
+      </c>
       <c r="C38" s="11">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="D38" s="11">
-        <v>0.46</v>
-      </c>
-      <c r="E38" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>1.67</v>
+      </c>
       <c r="F38" s="11">
-        <v>2.36</v>
+        <v>4.79</v>
       </c>
       <c r="G38" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="11">
-        <v>0.11</v>
+        <v>0.77</v>
       </c>
       <c r="I38" s="11">
-        <v>19.760000000000002</v>
+        <v>25.25</v>
       </c>
       <c r="J38" s="11">
-        <v>4.88</v>
+        <v>10.06</v>
       </c>
       <c r="K38" s="11">
-        <v>0.17</v>
-      </c>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="13"/>
+        <v>0.2</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0.43</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+      <c r="N38" s="13">
+        <v>0</v>
+      </c>
       <c r="O38" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <v>75.510000000000005</v>
-      </c>
-      <c r="B39" s="11"/>
+        <v>33.590000000000003</v>
+      </c>
+      <c r="B39" s="11">
+        <v>0</v>
+      </c>
       <c r="C39" s="11">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="D39" s="11">
-        <v>0.64</v>
+        <v>3.51</v>
       </c>
       <c r="E39" s="11">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="F39" s="11">
-        <v>2.35</v>
-      </c>
-      <c r="G39" s="11"/>
+        <v>2.69</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
       <c r="H39" s="11">
-        <v>0.47</v>
+        <v>4.93</v>
       </c>
       <c r="I39" s="11">
-        <v>16.16</v>
+        <v>25.39</v>
       </c>
       <c r="J39" s="11">
-        <v>3.55</v>
+        <v>14.61</v>
       </c>
       <c r="K39" s="11">
-        <v>0.13</v>
-      </c>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="13"/>
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0.37</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
+      <c r="N39" s="11">
+        <v>0</v>
+      </c>
       <c r="O39" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>35.78</v>
-      </c>
-      <c r="B40" s="11"/>
+        <v>51.54</v>
+      </c>
+      <c r="B40" s="11">
+        <v>4.66</v>
+      </c>
       <c r="C40" s="11">
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D40" s="11">
-        <v>0.78</v>
-      </c>
-      <c r="E40" s="11"/>
+        <v>0.87</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0.61</v>
+      </c>
       <c r="F40" s="11">
-        <v>1.62</v>
+        <v>3.06</v>
       </c>
       <c r="G40" s="11">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="H40" s="11">
-        <v>1.51</v>
+        <v>0.65</v>
       </c>
       <c r="I40" s="11">
-        <v>46.55</v>
+        <v>25.4</v>
       </c>
       <c r="J40" s="11">
-        <v>10</v>
+        <v>9.23</v>
       </c>
       <c r="K40" s="11">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="L40" s="11">
-        <v>0.22</v>
-      </c>
-      <c r="M40" s="11"/>
-      <c r="N40" s="13"/>
+        <v>0.85</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="13">
+        <v>0</v>
+      </c>
       <c r="O40" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>65.91</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
+        <v>20.14</v>
+      </c>
+      <c r="B41" s="11">
+        <v>0</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0</v>
+      </c>
       <c r="D41" s="11">
-        <v>0.38</v>
-      </c>
-      <c r="E41" s="11"/>
+        <v>1.48</v>
+      </c>
+      <c r="E41" s="11">
+        <v>0</v>
+      </c>
       <c r="F41" s="11">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="G41" s="11">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H41" s="11">
-        <v>0.16</v>
+        <v>10.41</v>
       </c>
       <c r="I41" s="11">
-        <v>22.05</v>
+        <v>28.68</v>
       </c>
       <c r="J41" s="11">
-        <v>5.68</v>
+        <v>31.23</v>
       </c>
       <c r="K41" s="11">
-        <v>0.42</v>
-      </c>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="13"/>
+        <v>3.59</v>
+      </c>
+      <c r="L41" s="11">
+        <v>0.37</v>
+      </c>
+      <c r="M41" s="11">
+        <v>0</v>
+      </c>
+      <c r="N41" s="11">
+        <v>2.58</v>
+      </c>
       <c r="O41" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>39.57</v>
+        <v>31.94</v>
       </c>
       <c r="B42" s="11">
-        <v>2.2200000000000002</v>
+        <v>0</v>
       </c>
       <c r="C42" s="11">
+        <v>0</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0.47</v>
+      </c>
+      <c r="E42" s="11">
+        <v>0</v>
+      </c>
+      <c r="F42" s="11">
+        <v>1.59</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="I42" s="11">
+        <v>29.14</v>
+      </c>
+      <c r="J42" s="11">
+        <v>26.23</v>
+      </c>
+      <c r="K42" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D42" s="11">
-        <v>0.37</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="G42" s="11">
-        <v>0.32</v>
-      </c>
-      <c r="H42" s="11">
-        <v>0.68</v>
-      </c>
-      <c r="I42" s="11">
-        <v>41.61</v>
-      </c>
-      <c r="J42" s="11">
-        <v>10.83</v>
-      </c>
-      <c r="K42" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="L42" s="11">
-        <v>0.22</v>
-      </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="13"/>
+        <v>0.91</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+      <c r="N42" s="11">
+        <v>0</v>
+      </c>
       <c r="O42" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
-        <v>60.12</v>
-      </c>
-      <c r="B43" s="11"/>
+        <v>19.79</v>
+      </c>
+      <c r="B43" s="11">
+        <v>0</v>
+      </c>
       <c r="C43" s="11">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="D43" s="11">
-        <v>0.89</v>
-      </c>
-      <c r="E43" s="11"/>
+        <v>1.44</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0</v>
+      </c>
       <c r="F43" s="11">
-        <v>2.72</v>
-      </c>
-      <c r="G43" s="11"/>
+        <v>0.7</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
       <c r="H43" s="11">
-        <v>3.01</v>
+        <v>10.57</v>
       </c>
       <c r="I43" s="11">
-        <v>17.239999999999998</v>
+        <v>29.53</v>
       </c>
       <c r="J43" s="11">
-        <v>10.34</v>
+        <v>32.25</v>
       </c>
       <c r="K43" s="11">
-        <v>1.46</v>
+        <v>3.13</v>
       </c>
       <c r="L43" s="11">
-        <v>0.31</v>
-      </c>
-      <c r="M43" s="11"/>
+        <v>0.45</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
       <c r="N43" s="11">
-        <v>3.66</v>
+        <v>1.96</v>
       </c>
       <c r="O43" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
-        <v>32.93</v>
+        <v>3.72</v>
       </c>
       <c r="B44" s="11">
-        <v>1.38</v>
-      </c>
-      <c r="C44" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="11">
+        <v>0.4</v>
+      </c>
       <c r="D44" s="11">
-        <v>0.68</v>
-      </c>
-      <c r="E44" s="11"/>
+        <v>3.01</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0</v>
+      </c>
       <c r="F44" s="11">
-        <v>2.57</v>
+        <v>1.18</v>
       </c>
       <c r="G44" s="11">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="H44" s="11">
-        <v>0.73</v>
+        <v>3.6</v>
       </c>
       <c r="I44" s="11">
-        <v>49.31</v>
+        <v>29.92</v>
       </c>
       <c r="J44" s="11">
-        <v>9.7899999999999991</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="K44" s="11">
-        <v>0.48</v>
+        <v>6.04</v>
       </c>
       <c r="L44" s="11">
-        <v>0.41</v>
-      </c>
-      <c r="M44" s="11"/>
-      <c r="N44" s="13"/>
+        <v>0.62</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+      <c r="N44" s="11">
+        <v>15.95</v>
+      </c>
       <c r="O44" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
-        <v>26.25</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
+        <v>45.02</v>
+      </c>
+      <c r="B45" s="11">
+        <v>0</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0</v>
+      </c>
       <c r="D45" s="11">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="E45" s="11"/>
+        <v>3.12</v>
+      </c>
+      <c r="E45" s="11">
+        <v>0.54</v>
+      </c>
       <c r="F45" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="G45" s="11"/>
+        <v>4.16</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0</v>
+      </c>
       <c r="H45" s="11">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="I45" s="11">
-        <v>61.03</v>
+        <v>30.61</v>
       </c>
       <c r="J45" s="11">
-        <v>7.22</v>
+        <v>6.22</v>
       </c>
       <c r="K45" s="11">
-        <v>1.1599999999999999</v>
+        <v>6.34</v>
       </c>
       <c r="L45" s="11">
-        <v>0.61</v>
-      </c>
-      <c r="M45" s="11"/>
-      <c r="N45" s="13"/>
+        <v>0.23</v>
+      </c>
+      <c r="M45" s="11">
+        <v>0</v>
+      </c>
+      <c r="N45" s="13">
+        <v>0</v>
+      </c>
       <c r="O45" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
-        <v>16.71</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+        <v>50.61</v>
+      </c>
+      <c r="B46" s="11">
+        <v>2.31</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0</v>
+      </c>
       <c r="D46" s="11">
-        <v>1.87</v>
-      </c>
-      <c r="E46" s="11"/>
+        <v>0.63</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
       <c r="F46" s="11">
-        <v>0.45</v>
+        <v>1.9</v>
       </c>
       <c r="G46" s="11">
+        <v>1.55</v>
+      </c>
+      <c r="H46" s="11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I46" s="11">
+        <v>31.9</v>
+      </c>
+      <c r="J46" s="11">
+        <v>6.65</v>
+      </c>
+      <c r="K46" s="11">
         <v>0.19</v>
       </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11">
-        <v>70.209999999999994</v>
-      </c>
-      <c r="J46" s="11">
-        <v>6.69</v>
-      </c>
-      <c r="K46" s="11">
-        <v>1.77</v>
-      </c>
       <c r="L46" s="11">
-        <v>0.68</v>
-      </c>
-      <c r="M46" s="11"/>
-      <c r="N46" s="13"/>
+        <v>0.2</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+      <c r="N46" s="13">
+        <v>0</v>
+      </c>
       <c r="O46" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
-        <v>18.46</v>
-      </c>
-      <c r="B47" s="11"/>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="B47" s="11">
+        <v>0</v>
+      </c>
       <c r="C47" s="11">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="D47" s="11">
-        <v>4.96</v>
+        <v>3.19</v>
       </c>
       <c r="E47" s="11">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="F47" s="11">
-        <v>3.33</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G47" s="11">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="H47" s="11">
-        <v>0.19</v>
+        <v>3.14</v>
       </c>
       <c r="I47" s="11">
-        <v>44.12</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="J47" s="11">
-        <v>9.76</v>
+        <v>30.62</v>
       </c>
       <c r="K47" s="11">
-        <v>7.46</v>
+        <v>7.56</v>
       </c>
       <c r="L47" s="11">
-        <v>0.47</v>
-      </c>
-      <c r="M47" s="11"/>
-      <c r="N47" s="13"/>
+        <v>0.53</v>
+      </c>
+      <c r="M47" s="11">
+        <v>0</v>
+      </c>
+      <c r="N47" s="11">
+        <v>15.03</v>
+      </c>
       <c r="O47" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
-        <v>51.26</v>
+        <v>49.01</v>
       </c>
       <c r="B48" s="11">
-        <v>5.74</v>
+        <v>2.71</v>
       </c>
       <c r="C48" s="11">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D48" s="11">
-        <v>0.79</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E48" s="11">
-        <v>1.0900000000000001</v>
+        <v>0</v>
       </c>
       <c r="F48" s="11">
-        <v>3.53</v>
-      </c>
-      <c r="G48" s="11"/>
+        <v>1.45</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
       <c r="H48" s="11">
-        <v>2.67</v>
+        <v>0.86</v>
       </c>
       <c r="I48" s="11">
-        <v>21.88</v>
+        <v>32.92</v>
       </c>
       <c r="J48" s="11">
-        <v>10.47</v>
+        <v>7.95</v>
       </c>
       <c r="K48" s="11">
-        <v>0.08</v>
+        <v>0.35</v>
       </c>
       <c r="L48" s="11">
-        <v>0.35</v>
-      </c>
-      <c r="M48" s="11"/>
-      <c r="N48" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+      <c r="N48" s="13">
+        <v>0</v>
+      </c>
       <c r="O48" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
-        <v>51.33</v>
+        <v>28.79</v>
       </c>
       <c r="B49" s="11">
-        <v>5.68</v>
+        <v>0</v>
       </c>
       <c r="C49" s="11">
-        <v>0.35</v>
-      </c>
-      <c r="D49" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="11">
+        <v>4.58</v>
+      </c>
       <c r="E49" s="11">
-        <v>1.1599999999999999</v>
+        <v>1.47</v>
       </c>
       <c r="F49" s="11">
-        <v>5.66</v>
-      </c>
-      <c r="G49" s="11"/>
+        <v>5.38</v>
+      </c>
+      <c r="G49" s="11">
+        <v>2.74</v>
+      </c>
       <c r="H49" s="11">
-        <v>2.72</v>
+        <v>0.7</v>
       </c>
       <c r="I49" s="11">
-        <v>20.12</v>
+        <v>34.18</v>
       </c>
       <c r="J49" s="11">
-        <v>10.88</v>
-      </c>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="13"/>
+        <v>6.1</v>
+      </c>
+      <c r="K49" s="11">
+        <v>11.1</v>
+      </c>
+      <c r="L49" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="M49" s="11">
+        <v>0</v>
+      </c>
+      <c r="N49" s="13">
+        <v>0</v>
+      </c>
       <c r="O49" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
-        <v>12.41</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
+        <v>36.93</v>
+      </c>
+      <c r="B50" s="11">
+        <v>0</v>
+      </c>
+      <c r="C50" s="11">
+        <v>0</v>
+      </c>
       <c r="D50" s="11">
-        <v>5.24</v>
+        <v>4.24</v>
       </c>
       <c r="E50" s="11">
-        <v>0.89</v>
+        <v>0.51</v>
       </c>
       <c r="F50" s="11">
-        <v>2.25</v>
+        <v>3.86</v>
       </c>
       <c r="G50" s="11">
-        <v>0.76</v>
+        <v>2.74</v>
       </c>
       <c r="H50" s="11">
-        <v>5.35</v>
+        <v>0</v>
       </c>
       <c r="I50" s="11">
-        <v>59.85</v>
+        <v>37.74</v>
       </c>
       <c r="J50" s="11">
-        <v>7.29</v>
-      </c>
-      <c r="K50" s="11"/>
+        <v>10.35</v>
+      </c>
+      <c r="K50" s="11">
+        <v>1.41</v>
+      </c>
       <c r="L50" s="11">
-        <v>0.64</v>
-      </c>
-      <c r="M50" s="11"/>
-      <c r="N50" s="13"/>
+        <v>0.48</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0.44</v>
+      </c>
+      <c r="N50" s="13">
+        <v>0</v>
+      </c>
       <c r="O50" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
-        <v>21.7</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
+        <v>34.340000000000003</v>
+      </c>
+      <c r="B51" s="11">
+        <v>0</v>
+      </c>
+      <c r="C51" s="11">
+        <v>1.41</v>
+      </c>
       <c r="D51" s="11">
-        <v>6.4</v>
+        <v>4.49</v>
       </c>
       <c r="E51" s="11">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F51" s="11">
-        <v>3.41</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="G51" s="11">
-        <v>1.39</v>
+        <v>2.12</v>
       </c>
       <c r="H51" s="11">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="I51" s="11">
-        <v>44.75</v>
+        <v>39.22</v>
       </c>
       <c r="J51" s="11">
-        <v>3.26</v>
+        <v>10.29</v>
       </c>
       <c r="K51" s="11">
-        <v>12.83</v>
+        <v>0</v>
       </c>
       <c r="L51" s="11">
-        <v>0.47</v>
-      </c>
-      <c r="M51" s="11"/>
-      <c r="N51" s="13"/>
+        <v>0.35</v>
+      </c>
+      <c r="M51" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="N51" s="13">
+        <v>0</v>
+      </c>
       <c r="O51" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
-        <v>60.74</v>
+        <v>30.39</v>
       </c>
       <c r="B52" s="11">
-        <v>3.06</v>
+        <v>0</v>
       </c>
       <c r="C52" s="11">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="D52" s="11">
-        <v>2.14</v>
-      </c>
-      <c r="E52" s="11"/>
+        <v>3.49</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0.79</v>
+      </c>
       <c r="F52" s="11">
-        <v>12.69</v>
+        <v>3.52</v>
       </c>
       <c r="G52" s="11">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
       <c r="H52" s="11">
-        <v>0.43</v>
+        <v>3.13</v>
       </c>
       <c r="I52" s="11">
-        <v>13.61</v>
+        <v>39.35</v>
       </c>
       <c r="J52" s="11">
-        <v>5.22</v>
-      </c>
-      <c r="K52" s="11"/>
+        <v>7.66</v>
+      </c>
+      <c r="K52" s="11">
+        <v>8.99</v>
+      </c>
       <c r="L52" s="11">
-        <v>0.26</v>
-      </c>
-      <c r="M52" s="11"/>
-      <c r="N52" s="13"/>
+        <v>0.24</v>
+      </c>
+      <c r="M52" s="11">
+        <v>0</v>
+      </c>
+      <c r="N52" s="11">
+        <v>0</v>
+      </c>
       <c r="O52" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
-        <v>61.28</v>
+        <v>24.61</v>
       </c>
       <c r="B53" s="11">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="C53" s="11">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D53" s="11">
-        <v>0.84</v>
+        <v>3.58</v>
       </c>
       <c r="E53" s="11">
-        <v>0.74</v>
+        <v>1.19</v>
       </c>
       <c r="F53" s="11">
-        <v>5</v>
-      </c>
-      <c r="G53" s="11"/>
+        <v>5.25</v>
+      </c>
+      <c r="G53" s="11">
+        <v>1.19</v>
+      </c>
       <c r="H53" s="11">
-        <v>0.53</v>
+        <v>1.37</v>
       </c>
       <c r="I53" s="11">
-        <v>15.99</v>
+        <v>40.24</v>
       </c>
       <c r="J53" s="11">
-        <v>10.96</v>
-      </c>
-      <c r="K53" s="11"/>
+        <v>8.94</v>
+      </c>
+      <c r="K53" s="11">
+        <v>8.1</v>
+      </c>
       <c r="L53" s="11">
-        <v>0.23</v>
-      </c>
-      <c r="M53" s="11"/>
-      <c r="N53" s="13"/>
+        <v>0.39</v>
+      </c>
+      <c r="M53" s="11">
+        <v>0.47</v>
+      </c>
+      <c r="N53" s="13">
+        <v>0</v>
+      </c>
       <c r="O53" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
-        <v>55.21</v>
-      </c>
-      <c r="B54" s="11"/>
+        <v>29.15</v>
+      </c>
+      <c r="B54" s="11">
+        <v>0</v>
+      </c>
       <c r="C54" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="D54" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="D54" s="11">
+        <v>1.21</v>
+      </c>
       <c r="E54" s="11">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="F54" s="11">
-        <v>4.79</v>
-      </c>
-      <c r="G54" s="11"/>
+        <v>1.85</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
       <c r="H54" s="11">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="I54" s="11">
-        <v>25.25</v>
+        <v>41.25</v>
       </c>
       <c r="J54" s="11">
-        <v>10.06</v>
+        <v>15.45</v>
       </c>
       <c r="K54" s="11">
-        <v>0.2</v>
+        <v>2.54</v>
       </c>
       <c r="L54" s="11">
-        <v>0.43</v>
-      </c>
-      <c r="M54" s="11"/>
-      <c r="N54" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+      <c r="N54" s="13">
+        <v>0</v>
+      </c>
       <c r="O54" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
-        <v>51.54</v>
+        <v>39.57</v>
       </c>
       <c r="B55" s="11">
-        <v>4.66</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="C55" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D55" s="11">
-        <v>0.87</v>
+        <v>0.37</v>
       </c>
       <c r="E55" s="11">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="F55" s="11">
-        <v>3.06</v>
-      </c>
-      <c r="G55" s="11"/>
+        <v>1.6</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0.32</v>
+      </c>
       <c r="H55" s="11">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="I55" s="11">
-        <v>25.4</v>
+        <v>41.61</v>
       </c>
       <c r="J55" s="11">
-        <v>9.23</v>
+        <v>10.83</v>
       </c>
       <c r="K55" s="11">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L55" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="M55" s="11"/>
-      <c r="N55" s="13"/>
+        <v>0.22</v>
+      </c>
+      <c r="M55" s="11">
+        <v>0</v>
+      </c>
+      <c r="N55" s="13">
+        <v>0</v>
+      </c>
       <c r="O55" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
-        <v>53.33</v>
+        <v>29.64</v>
       </c>
       <c r="B56" s="11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C56" s="11">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="D56" s="11">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="E56" s="11">
-        <v>1.54</v>
+        <v>0.59</v>
       </c>
       <c r="F56" s="11">
-        <v>13.65</v>
+        <v>3.57</v>
       </c>
       <c r="G56" s="11">
-        <v>1.03</v>
-      </c>
-      <c r="H56" s="11"/>
+        <v>1.33</v>
+      </c>
+      <c r="H56" s="11">
+        <v>3.51</v>
+      </c>
       <c r="I56" s="11">
-        <v>15.71</v>
+        <v>42.82</v>
       </c>
       <c r="J56" s="11">
-        <v>7.31</v>
+        <v>5.35</v>
       </c>
       <c r="K56" s="11">
-        <v>1.1000000000000001</v>
+        <v>8.83</v>
       </c>
       <c r="L56" s="11">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="M56" s="11">
-        <v>1.31</v>
-      </c>
-      <c r="N56" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="11">
+        <v>0</v>
+      </c>
       <c r="O56" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
-        <v>28.79</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
+        <v>17.98</v>
+      </c>
+      <c r="B57" s="11">
+        <v>0</v>
+      </c>
+      <c r="C57" s="11">
+        <v>0</v>
+      </c>
       <c r="D57" s="11">
-        <v>4.58</v>
+        <v>3.19</v>
       </c>
       <c r="E57" s="11">
-        <v>1.47</v>
+        <v>0.47</v>
       </c>
       <c r="F57" s="11">
-        <v>5.38</v>
+        <v>1.87</v>
       </c>
       <c r="G57" s="11">
-        <v>2.74</v>
+        <v>0.33</v>
       </c>
       <c r="H57" s="11">
-        <v>0.7</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I57" s="11">
-        <v>34.18</v>
+        <v>44</v>
       </c>
       <c r="J57" s="11">
-        <v>6.1</v>
+        <v>14.2</v>
       </c>
       <c r="K57" s="11">
-        <v>11.1</v>
+        <v>6.34</v>
       </c>
       <c r="L57" s="11">
-        <v>0.46</v>
-      </c>
-      <c r="M57" s="11"/>
-      <c r="N57" s="13"/>
+        <v>0.66</v>
+      </c>
+      <c r="M57" s="11">
+        <v>0</v>
+      </c>
+      <c r="N57" s="13">
+        <v>0</v>
+      </c>
       <c r="O57" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
-        <v>54.61</v>
-      </c>
-      <c r="B58" s="11"/>
+        <v>18.46</v>
+      </c>
+      <c r="B58" s="11">
+        <v>0</v>
+      </c>
       <c r="C58" s="11">
-        <v>0.3</v>
+        <v>0.44</v>
       </c>
       <c r="D58" s="11">
-        <v>2.08</v>
+        <v>4.96</v>
       </c>
       <c r="E58" s="11">
-        <v>1.2</v>
+        <v>2.73</v>
       </c>
       <c r="F58" s="11">
-        <v>6.5</v>
+        <v>3.33</v>
       </c>
       <c r="G58" s="11">
-        <v>1.27</v>
+        <v>1.79</v>
       </c>
       <c r="H58" s="11">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="I58" s="11">
-        <v>23.02</v>
+        <v>44.12</v>
       </c>
       <c r="J58" s="11">
-        <v>4.1900000000000004</v>
+        <v>9.76</v>
       </c>
       <c r="K58" s="11">
-        <v>4.32</v>
+        <v>7.46</v>
       </c>
       <c r="L58" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="M58" s="11"/>
-      <c r="N58" s="13"/>
+        <v>0.47</v>
+      </c>
+      <c r="M58" s="11">
+        <v>0</v>
+      </c>
+      <c r="N58" s="13">
+        <v>0</v>
+      </c>
       <c r="O58" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
-        <v>17.98</v>
-      </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
+        <v>21.7</v>
+      </c>
+      <c r="B59" s="11">
+        <v>0</v>
+      </c>
+      <c r="C59" s="11">
+        <v>0</v>
+      </c>
       <c r="D59" s="11">
-        <v>3.19</v>
+        <v>6.4</v>
       </c>
       <c r="E59" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="F59" s="11">
+        <v>3.41</v>
+      </c>
+      <c r="G59" s="11">
+        <v>1.39</v>
+      </c>
+      <c r="H59" s="11">
+        <v>1.51</v>
+      </c>
+      <c r="I59" s="11">
+        <v>44.75</v>
+      </c>
+      <c r="J59" s="11">
+        <v>3.26</v>
+      </c>
+      <c r="K59" s="11">
+        <v>12.83</v>
+      </c>
+      <c r="L59" s="11">
         <v>0.47</v>
       </c>
-      <c r="F59" s="11">
-        <v>1.87</v>
-      </c>
-      <c r="G59" s="11">
-        <v>0.33</v>
-      </c>
-      <c r="H59" s="11">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="I59" s="11">
-        <v>44</v>
-      </c>
-      <c r="J59" s="11">
-        <v>14.2</v>
-      </c>
-      <c r="K59" s="11">
-        <v>6.34</v>
-      </c>
-      <c r="L59" s="11">
-        <v>0.66</v>
-      </c>
-      <c r="M59" s="11"/>
-      <c r="N59" s="13"/>
+      <c r="M59" s="11">
+        <v>0</v>
+      </c>
+      <c r="N59" s="13">
+        <v>0</v>
+      </c>
       <c r="O59" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
-        <v>45.02</v>
-      </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
+        <v>25.42</v>
+      </c>
+      <c r="B60" s="11">
+        <v>0</v>
+      </c>
+      <c r="C60" s="11">
+        <v>0</v>
+      </c>
       <c r="D60" s="11">
-        <v>3.12</v>
+        <v>1.31</v>
       </c>
       <c r="E60" s="11">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="F60" s="11">
-        <v>4.16</v>
-      </c>
-      <c r="G60" s="11"/>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G60" s="11">
+        <v>0</v>
+      </c>
       <c r="H60" s="11">
-        <v>0.7</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I60" s="11">
-        <v>30.61</v>
+        <v>45.1</v>
       </c>
       <c r="J60" s="11">
-        <v>6.22</v>
+        <v>17.3</v>
       </c>
       <c r="K60" s="11">
-        <v>6.34</v>
+        <v>0</v>
       </c>
       <c r="L60" s="11">
-        <v>0.23</v>
-      </c>
-      <c r="M60" s="11"/>
-      <c r="N60" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="11">
+        <v>0</v>
+      </c>
+      <c r="N60" s="13">
+        <v>0</v>
+      </c>
       <c r="O60" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
-        <v>24.61</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
+        <v>35.78</v>
+      </c>
+      <c r="B61" s="11">
+        <v>0</v>
+      </c>
+      <c r="C61" s="11">
+        <v>0.25</v>
+      </c>
       <c r="D61" s="11">
-        <v>3.58</v>
+        <v>0.78</v>
       </c>
       <c r="E61" s="11">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="F61" s="11">
-        <v>5.25</v>
+        <v>1.62</v>
       </c>
       <c r="G61" s="11">
-        <v>1.19</v>
+        <v>0.47</v>
       </c>
       <c r="H61" s="11">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="I61" s="11">
-        <v>40.24</v>
+        <v>46.55</v>
       </c>
       <c r="J61" s="11">
-        <v>8.94</v>
+        <v>10</v>
       </c>
       <c r="K61" s="11">
-        <v>8.1</v>
+        <v>0.34</v>
       </c>
       <c r="L61" s="11">
-        <v>0.39</v>
+        <v>0.22</v>
       </c>
       <c r="M61" s="11">
-        <v>0.47</v>
-      </c>
-      <c r="N61" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="13">
+        <v>0</v>
+      </c>
       <c r="O61" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
-        <v>21.35</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
+        <v>25.74</v>
+      </c>
+      <c r="B62" s="11">
+        <v>1.22</v>
+      </c>
+      <c r="C62" s="11">
+        <v>0</v>
+      </c>
       <c r="D62" s="11">
-        <v>5.13</v>
+        <v>2.27</v>
       </c>
       <c r="E62" s="11">
-        <v>1.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F62" s="11">
-        <v>2.5099999999999998</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G62" s="11">
-        <v>0.42</v>
+        <v>0.23</v>
       </c>
       <c r="H62" s="11">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="I62" s="11">
-        <v>51.34</v>
-      </c>
-      <c r="J62" s="11"/>
+        <v>47.42</v>
+      </c>
+      <c r="J62" s="11">
+        <v>8.64</v>
+      </c>
       <c r="K62" s="11">
-        <v>8.75</v>
-      </c>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="13"/>
+        <v>5.71</v>
+      </c>
+      <c r="L62" s="11">
+        <v>0.44</v>
+      </c>
+      <c r="M62" s="11">
+        <v>0</v>
+      </c>
+      <c r="N62" s="13">
+        <v>0</v>
+      </c>
       <c r="O62" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
-        <v>25.74</v>
+        <v>36.28</v>
       </c>
       <c r="B63" s="11">
-        <v>1.22</v>
-      </c>
-      <c r="C63" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="11">
+        <v>1.05</v>
+      </c>
       <c r="D63" s="11">
-        <v>2.27</v>
+        <v>2.34</v>
       </c>
       <c r="E63" s="11">
-        <v>0.55000000000000004</v>
+        <v>1.18</v>
       </c>
       <c r="F63" s="11">
-        <v>1.1599999999999999</v>
+        <v>5.73</v>
       </c>
       <c r="G63" s="11">
-        <v>0.23</v>
+        <v>1.86</v>
       </c>
       <c r="H63" s="11">
-        <v>0.7</v>
+        <v>0.26</v>
       </c>
       <c r="I63" s="11">
-        <v>47.42</v>
+        <v>47.43</v>
       </c>
       <c r="J63" s="11">
-        <v>8.64</v>
+        <v>0</v>
       </c>
       <c r="K63" s="11">
-        <v>5.71</v>
+        <v>3.57</v>
       </c>
       <c r="L63" s="11">
-        <v>0.44</v>
-      </c>
-      <c r="M63" s="11"/>
-      <c r="N63" s="13"/>
+        <v>0.19</v>
+      </c>
+      <c r="M63" s="11">
+        <v>0</v>
+      </c>
+      <c r="N63" s="11">
+        <v>0</v>
+      </c>
       <c r="O63" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
-        <v>63.66</v>
+        <v>32.93</v>
       </c>
       <c r="B64" s="11">
-        <v>3.04</v>
+        <v>1.38</v>
       </c>
       <c r="C64" s="11">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D64" s="11">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
       <c r="E64" s="11">
-        <v>1.1399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F64" s="11">
-        <v>6.06</v>
-      </c>
-      <c r="G64" s="11"/>
+        <v>2.57</v>
+      </c>
+      <c r="G64" s="11">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="H64" s="11">
-        <v>0.54</v>
+        <v>0.73</v>
       </c>
       <c r="I64" s="11">
-        <v>13.66</v>
+        <v>49.31</v>
       </c>
       <c r="J64" s="11">
-        <v>8.99</v>
-      </c>
-      <c r="K64" s="11"/>
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="K64" s="11">
+        <v>0.48</v>
+      </c>
       <c r="L64" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="M64" s="11"/>
-      <c r="N64" s="13"/>
+        <v>0.41</v>
+      </c>
+      <c r="M64" s="11">
+        <v>0</v>
+      </c>
+      <c r="N64" s="13">
+        <v>0</v>
+      </c>
       <c r="O64" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
-        <v>22.28</v>
-      </c>
-      <c r="B65" s="11"/>
+        <v>21.35</v>
+      </c>
+      <c r="B65" s="11">
+        <v>0</v>
+      </c>
       <c r="C65" s="11">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="D65" s="11">
-        <v>3.19</v>
+        <v>5.13</v>
       </c>
       <c r="E65" s="11">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="F65" s="11">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="G65" s="11"/>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G65" s="11">
+        <v>0.42</v>
+      </c>
       <c r="H65" s="11">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="I65" s="11">
-        <v>55.46</v>
+        <v>51.34</v>
       </c>
       <c r="J65" s="11">
-        <v>7.04</v>
+        <v>0</v>
       </c>
       <c r="K65" s="11">
-        <v>4.24</v>
+        <v>8.75</v>
       </c>
       <c r="L65" s="11">
-        <v>0.88</v>
-      </c>
-      <c r="M65" s="11"/>
-      <c r="N65" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="11">
+        <v>0</v>
+      </c>
+      <c r="N65" s="13">
+        <v>0</v>
+      </c>
       <c r="O65" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
-        <v>17.11</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
+        <v>22.28</v>
+      </c>
+      <c r="B66" s="11">
+        <v>0</v>
+      </c>
+      <c r="C66" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="D66" s="11">
+        <v>3.19</v>
+      </c>
       <c r="E66" s="11">
-        <v>1.1100000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="F66" s="11">
-        <v>3.65</v>
-      </c>
-      <c r="G66" s="11"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G66" s="11">
+        <v>0</v>
+      </c>
       <c r="H66" s="11">
-        <v>1.34</v>
+        <v>0.83</v>
       </c>
       <c r="I66" s="11">
-        <v>58.46</v>
-      </c>
-      <c r="J66" s="11"/>
+        <v>55.46</v>
+      </c>
+      <c r="J66" s="11">
+        <v>7.04</v>
+      </c>
       <c r="K66" s="11">
-        <v>14.13</v>
+        <v>4.24</v>
       </c>
       <c r="L66" s="11">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="M66" s="11"/>
-      <c r="N66" s="13"/>
+        <v>0.88</v>
+      </c>
+      <c r="M66" s="11">
+        <v>0</v>
+      </c>
+      <c r="N66" s="13">
+        <v>0</v>
+      </c>
       <c r="O66" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
-        <v>49.01</v>
+        <v>17.11</v>
       </c>
       <c r="B67" s="11">
-        <v>2.71</v>
-      </c>
-      <c r="C67" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="C67" s="11">
+        <v>0</v>
+      </c>
       <c r="D67" s="11">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="E67" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="11">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="F67" s="11">
-        <v>1.45</v>
-      </c>
-      <c r="G67" s="11"/>
+        <v>3.65</v>
+      </c>
+      <c r="G67" s="11">
+        <v>0</v>
+      </c>
       <c r="H67" s="11">
-        <v>0.86</v>
+        <v>1.34</v>
       </c>
       <c r="I67" s="11">
-        <v>32.92</v>
+        <v>58.46</v>
       </c>
       <c r="J67" s="11">
-        <v>7.95</v>
+        <v>0</v>
       </c>
       <c r="K67" s="11">
-        <v>0.35</v>
-      </c>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="13"/>
+        <v>14.13</v>
+      </c>
+      <c r="L67" s="11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="M67" s="11">
+        <v>0</v>
+      </c>
+      <c r="N67" s="13">
+        <v>0</v>
+      </c>
       <c r="O67" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
-        <v>29.15</v>
-      </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
+        <v>12.41</v>
+      </c>
+      <c r="B68" s="11">
+        <v>0</v>
+      </c>
+      <c r="C68" s="11">
+        <v>0</v>
+      </c>
       <c r="D68" s="11">
-        <v>1.21</v>
-      </c>
-      <c r="E68" s="11"/>
+        <v>5.24</v>
+      </c>
+      <c r="E68" s="11">
+        <v>0.89</v>
+      </c>
       <c r="F68" s="11">
-        <v>1.85</v>
-      </c>
-      <c r="G68" s="11"/>
+        <v>2.25</v>
+      </c>
+      <c r="G68" s="11">
+        <v>0.76</v>
+      </c>
       <c r="H68" s="11">
-        <v>0.79</v>
+        <v>5.35</v>
       </c>
       <c r="I68" s="11">
-        <v>41.25</v>
+        <v>59.85</v>
       </c>
       <c r="J68" s="11">
-        <v>15.45</v>
+        <v>7.29</v>
       </c>
       <c r="K68" s="11">
-        <v>2.54</v>
-      </c>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="M68" s="11">
+        <v>0</v>
+      </c>
+      <c r="N68" s="13">
+        <v>0</v>
+      </c>
       <c r="O68" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
-        <v>25.42</v>
-      </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
+        <v>26.25</v>
+      </c>
+      <c r="B69" s="11">
+        <v>0</v>
+      </c>
+      <c r="C69" s="11">
+        <v>0</v>
+      </c>
       <c r="D69" s="11">
-        <v>1.31</v>
-      </c>
-      <c r="E69" s="11"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E69" s="11">
+        <v>0</v>
+      </c>
       <c r="F69" s="11">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="G69" s="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="G69" s="11">
+        <v>0</v>
+      </c>
       <c r="H69" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="I69" s="11">
+        <v>61.03</v>
+      </c>
+      <c r="J69" s="11">
+        <v>7.22</v>
+      </c>
+      <c r="K69" s="11">
         <v>1.1599999999999999</v>
       </c>
-      <c r="I69" s="11">
-        <v>45.1</v>
-      </c>
-      <c r="J69" s="11">
-        <v>17.3</v>
-      </c>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="13"/>
+      <c r="L69" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="M69" s="11">
+        <v>0</v>
+      </c>
+      <c r="N69" s="13">
+        <v>0</v>
+      </c>
       <c r="O69" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
-        <v>30.39</v>
-      </c>
-      <c r="B70" s="11"/>
+        <v>16.71</v>
+      </c>
+      <c r="B70" s="11">
+        <v>0</v>
+      </c>
       <c r="C70" s="11">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="D70" s="11">
-        <v>3.49</v>
+        <v>1.87</v>
       </c>
       <c r="E70" s="11">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="F70" s="11">
-        <v>3.52</v>
+        <v>0.45</v>
       </c>
       <c r="G70" s="11">
-        <v>0.86</v>
+        <v>0.19</v>
       </c>
       <c r="H70" s="11">
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="I70" s="11">
-        <v>39.35</v>
+        <v>70.209999999999994</v>
       </c>
       <c r="J70" s="11">
-        <v>7.66</v>
+        <v>6.69</v>
       </c>
       <c r="K70" s="11">
-        <v>8.99</v>
+        <v>1.77</v>
       </c>
       <c r="L70" s="11">
-        <v>0.24</v>
-      </c>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
+        <v>0.68</v>
+      </c>
+      <c r="M70" s="11">
+        <v>0</v>
+      </c>
+      <c r="N70" s="13">
+        <v>0</v>
+      </c>
       <c r="O70" s="28" t="s">
         <v>185</v>
       </c>
@@ -15055,10 +15712,39 @@
   <autoFilter ref="O1:O70" xr:uid="{8C4EACC7-2CB4-4A56-9DE6-52F1CA3BA637}">
     <filterColumn colId="0">
       <filters>
-        <filter val="铅钡"/>
+        <filter val="高钾"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O71">
+    <sortCondition descending="1" ref="I1:I71"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD2A493-2708-404A-92DF-E411975C1C7F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427B56DB-500B-4D72-BC8B-29556215E5AE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
